--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.633495424689542</v>
+        <v>0.717901</v>
       </c>
       <c r="H2">
-        <v>0.633495424689542</v>
+        <v>2.153703</v>
       </c>
       <c r="I2">
-        <v>0.03439591295271988</v>
+        <v>0.0380297505351077</v>
       </c>
       <c r="J2">
-        <v>0.03439591295271988</v>
+        <v>0.0380297505351077</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.592063859366061</v>
+        <v>2.228108666666667</v>
       </c>
       <c r="N2">
-        <v>0.592063859366061</v>
+        <v>6.684326</v>
       </c>
       <c r="O2">
-        <v>0.53554260656538</v>
+        <v>0.5687849952918405</v>
       </c>
       <c r="P2">
-        <v>0.53554260656538</v>
+        <v>0.5687849952918405</v>
       </c>
       <c r="Q2">
-        <v>0.3750697460324321</v>
+        <v>1.599561439908667</v>
       </c>
       <c r="R2">
-        <v>0.3750697460324321</v>
+        <v>14.396052959178</v>
       </c>
       <c r="S2">
-        <v>0.01842047687789552</v>
+        <v>0.0216307514790611</v>
       </c>
       <c r="T2">
-        <v>0.01842047687789552</v>
+        <v>0.0216307514790611</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.633495424689542</v>
+        <v>0.717901</v>
       </c>
       <c r="H3">
-        <v>0.633495424689542</v>
+        <v>2.153703</v>
       </c>
       <c r="I3">
-        <v>0.03439591295271988</v>
+        <v>0.0380297505351077</v>
       </c>
       <c r="J3">
-        <v>0.03439591295271988</v>
+        <v>0.0380297505351077</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0935283390146721</v>
+        <v>0.1124773333333333</v>
       </c>
       <c r="N3">
-        <v>0.0935283390146721</v>
+        <v>0.337432</v>
       </c>
       <c r="O3">
-        <v>0.08459967564525735</v>
+        <v>0.02871288122861097</v>
       </c>
       <c r="P3">
-        <v>0.08459967564525735</v>
+        <v>0.02871288122861097</v>
       </c>
       <c r="Q3">
-        <v>0.05924977484460716</v>
+        <v>0.08074759007733333</v>
       </c>
       <c r="R3">
-        <v>0.05924977484460716</v>
+        <v>0.726728310696</v>
       </c>
       <c r="S3">
-        <v>0.002909883079322607</v>
+        <v>0.001091943710268252</v>
       </c>
       <c r="T3">
-        <v>0.002909883079322607</v>
+        <v>0.001091943710268252</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.633495424689542</v>
+        <v>0.717901</v>
       </c>
       <c r="H4">
-        <v>0.633495424689542</v>
+        <v>2.153703</v>
       </c>
       <c r="I4">
-        <v>0.03439591295271988</v>
+        <v>0.0380297505351077</v>
       </c>
       <c r="J4">
-        <v>0.03439591295271988</v>
+        <v>0.0380297505351077</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.41994796239783</v>
+        <v>1.576726666666667</v>
       </c>
       <c r="N4">
-        <v>0.41994796239783</v>
+        <v>4.73018</v>
       </c>
       <c r="O4">
-        <v>0.3798577177893626</v>
+        <v>0.4025021234795486</v>
       </c>
       <c r="P4">
-        <v>0.3798577177893626</v>
+        <v>0.4025021234795487</v>
       </c>
       <c r="Q4">
-        <v>0.2660351127867212</v>
+        <v>1.131933650726667</v>
       </c>
       <c r="R4">
-        <v>0.2660351127867212</v>
+        <v>10.18740285654</v>
       </c>
       <c r="S4">
-        <v>0.01306555299550175</v>
+        <v>0.01530705534577835</v>
       </c>
       <c r="T4">
-        <v>0.01306555299550175</v>
+        <v>0.01530705534577835</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.7089966477552</v>
+        <v>13.91986866666667</v>
       </c>
       <c r="H5">
-        <v>13.7089966477552</v>
+        <v>41.75960600000001</v>
       </c>
       <c r="I5">
-        <v>0.744336007787904</v>
+        <v>0.7373845876726675</v>
       </c>
       <c r="J5">
-        <v>0.744336007787904</v>
+        <v>0.7373845876726675</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.592063859366061</v>
+        <v>2.228108666666667</v>
       </c>
       <c r="N5">
-        <v>0.592063859366061</v>
+        <v>6.684326</v>
       </c>
       <c r="O5">
-        <v>0.53554260656538</v>
+        <v>0.5687849952918405</v>
       </c>
       <c r="P5">
-        <v>0.53554260656538</v>
+        <v>0.5687849952918405</v>
       </c>
       <c r="Q5">
-        <v>8.116601463306337</v>
+        <v>31.01498001506178</v>
       </c>
       <c r="R5">
-        <v>8.116601463306337</v>
+        <v>279.134820135556</v>
       </c>
       <c r="S5">
-        <v>0.3986236457712031</v>
+        <v>0.4194132892276739</v>
       </c>
       <c r="T5">
-        <v>0.3986236457712031</v>
+        <v>0.4194132892276739</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.7089966477552</v>
+        <v>13.91986866666667</v>
       </c>
       <c r="H6">
-        <v>13.7089966477552</v>
+        <v>41.75960600000001</v>
       </c>
       <c r="I6">
-        <v>0.744336007787904</v>
+        <v>0.7373845876726675</v>
       </c>
       <c r="J6">
-        <v>0.744336007787904</v>
+        <v>0.7373845876726675</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0935283390146721</v>
+        <v>0.1124773333333333</v>
       </c>
       <c r="N6">
-        <v>0.0935283390146721</v>
+        <v>0.337432</v>
       </c>
       <c r="O6">
-        <v>0.08459967564525735</v>
+        <v>0.02871288122861097</v>
       </c>
       <c r="P6">
-        <v>0.08459967564525735</v>
+        <v>0.02871288122861097</v>
       </c>
       <c r="Q6">
-        <v>1.282179686022252</v>
+        <v>1.565669707976889</v>
       </c>
       <c r="R6">
-        <v>1.282179686022252</v>
+        <v>14.091027371792</v>
       </c>
       <c r="S6">
-        <v>0.06297058482994243</v>
+        <v>0.02117243608565357</v>
       </c>
       <c r="T6">
-        <v>0.06297058482994243</v>
+        <v>0.02117243608565358</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.7089966477552</v>
+        <v>13.91986866666667</v>
       </c>
       <c r="H7">
-        <v>13.7089966477552</v>
+        <v>41.75960600000001</v>
       </c>
       <c r="I7">
-        <v>0.744336007787904</v>
+        <v>0.7373845876726675</v>
       </c>
       <c r="J7">
-        <v>0.744336007787904</v>
+        <v>0.7373845876726675</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.41994796239783</v>
+        <v>1.576726666666667</v>
       </c>
       <c r="N7">
-        <v>0.41994796239783</v>
+        <v>4.73018</v>
       </c>
       <c r="O7">
-        <v>0.3798577177893626</v>
+        <v>0.4025021234795486</v>
       </c>
       <c r="P7">
-        <v>0.3798577177893626</v>
+        <v>0.4025021234795487</v>
       </c>
       <c r="Q7">
-        <v>5.757065208743478</v>
+        <v>21.94782812323111</v>
       </c>
       <c r="R7">
-        <v>5.757065208743478</v>
+        <v>197.53045310908</v>
       </c>
       <c r="S7">
-        <v>0.2827417771867585</v>
+        <v>0.2967988623593401</v>
       </c>
       <c r="T7">
-        <v>0.2827417771867585</v>
+        <v>0.2967988623593401</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.07526080303019</v>
+        <v>4.239582666666666</v>
       </c>
       <c r="H8">
-        <v>4.07526080303019</v>
+        <v>12.718748</v>
       </c>
       <c r="I8">
-        <v>0.2212680792593761</v>
+        <v>0.2245856617922248</v>
       </c>
       <c r="J8">
-        <v>0.2212680792593761</v>
+        <v>0.2245856617922248</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.592063859366061</v>
+        <v>2.228108666666667</v>
       </c>
       <c r="N8">
-        <v>0.592063859366061</v>
+        <v>6.684326</v>
       </c>
       <c r="O8">
-        <v>0.53554260656538</v>
+        <v>0.5687849952918405</v>
       </c>
       <c r="P8">
-        <v>0.53554260656538</v>
+        <v>0.5687849952918405</v>
       </c>
       <c r="Q8">
-        <v>2.412814638965287</v>
+        <v>9.446250882649778</v>
       </c>
       <c r="R8">
-        <v>2.412814638965287</v>
+        <v>85.016257943848</v>
       </c>
       <c r="S8">
-        <v>0.1184984839162814</v>
+        <v>0.1277409545851055</v>
       </c>
       <c r="T8">
-        <v>0.1184984839162814</v>
+        <v>0.1277409545851055</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.07526080303019</v>
+        <v>4.239582666666666</v>
       </c>
       <c r="H9">
-        <v>4.07526080303019</v>
+        <v>12.718748</v>
       </c>
       <c r="I9">
-        <v>0.2212680792593761</v>
+        <v>0.2245856617922248</v>
       </c>
       <c r="J9">
-        <v>0.2212680792593761</v>
+        <v>0.2245856617922248</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0935283390146721</v>
+        <v>0.1124773333333333</v>
       </c>
       <c r="N9">
-        <v>0.0935283390146721</v>
+        <v>0.337432</v>
       </c>
       <c r="O9">
-        <v>0.08459967564525735</v>
+        <v>0.02871288122861097</v>
       </c>
       <c r="P9">
-        <v>0.08459967564525735</v>
+        <v>0.02871288122861097</v>
       </c>
       <c r="Q9">
-        <v>0.3811523739590125</v>
+        <v>0.4768569527928888</v>
       </c>
       <c r="R9">
-        <v>0.3811523739590125</v>
+        <v>4.291712575136</v>
       </c>
       <c r="S9">
-        <v>0.01871920773599232</v>
+        <v>0.006448501432689144</v>
       </c>
       <c r="T9">
-        <v>0.01871920773599232</v>
+        <v>0.006448501432689145</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.07526080303019</v>
+        <v>4.239582666666666</v>
       </c>
       <c r="H10">
-        <v>4.07526080303019</v>
+        <v>12.718748</v>
       </c>
       <c r="I10">
-        <v>0.2212680792593761</v>
+        <v>0.2245856617922248</v>
       </c>
       <c r="J10">
-        <v>0.2212680792593761</v>
+        <v>0.2245856617922248</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.41994796239783</v>
+        <v>1.576726666666667</v>
       </c>
       <c r="N10">
-        <v>0.41994796239783</v>
+        <v>4.73018</v>
       </c>
       <c r="O10">
-        <v>0.3798577177893626</v>
+        <v>0.4025021234795486</v>
       </c>
       <c r="P10">
-        <v>0.3798577177893626</v>
+        <v>0.4025021234795487</v>
       </c>
       <c r="Q10">
-        <v>1.711397470472273</v>
+        <v>6.68466304607111</v>
       </c>
       <c r="R10">
-        <v>1.711397470472273</v>
+        <v>60.16196741464</v>
       </c>
       <c r="S10">
-        <v>0.08405038760710241</v>
+        <v>0.09039620577443021</v>
       </c>
       <c r="T10">
-        <v>0.08405038760710241</v>
+        <v>0.09039620577443024</v>
       </c>
     </row>
   </sheetData>
